--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,23 +567,23 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UMU1059</t>
+          <t>UBI1619</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>UBI1617A</t>
+          <t>UBI1619A</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>46176</v>
+        <v>46196</v>
       </c>
       <c r="H2" t="n">
-        <v>46176</v>
+        <v>46196</v>
       </c>
       <c r="I2" t="n">
         <v>286</v>
@@ -598,7 +598,7 @@
         <v>2938</v>
       </c>
       <c r="M2" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="N2" t="n">
         <v>47401</v>
@@ -613,23 +613,23 @@
         <v>320</v>
       </c>
       <c r="R2" t="n">
-        <v>41.649694</v>
+        <v>41.4069</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4702</v>
+        <v>32.4906</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="X2" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="3">
@@ -643,23 +643,23 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UMU1059</t>
+          <t>UBI1619</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>UBI1617D</t>
+          <t>UBI1619D</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>46177</v>
+        <v>46197</v>
       </c>
       <c r="H3" t="n">
-        <v>46177</v>
+        <v>46197</v>
       </c>
       <c r="I3" t="n">
         <v>286</v>
@@ -674,7 +674,7 @@
         <v>2938</v>
       </c>
       <c r="M3" t="n">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="N3" t="n">
         <v>47401</v>
@@ -689,23 +689,23 @@
         <v>320</v>
       </c>
       <c r="R3" t="n">
-        <v>41.649694</v>
+        <v>41.4069</v>
       </c>
       <c r="S3" t="n">
-        <v>32.4702</v>
+        <v>32.4906</v>
       </c>
       <c r="T3" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="X3" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="4">
@@ -719,23 +719,23 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UMU1059</t>
+          <t>UBI1619</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>UBI1617G</t>
+          <t>UBI1619G</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>46178</v>
+        <v>46198</v>
       </c>
       <c r="H4" t="n">
-        <v>46178</v>
+        <v>46198</v>
       </c>
       <c r="I4" t="n">
         <v>286</v>
@@ -750,7 +750,7 @@
         <v>2938</v>
       </c>
       <c r="M4" t="n">
-        <v>265</v>
+        <v>114</v>
       </c>
       <c r="N4" t="n">
         <v>47401</v>
@@ -765,23 +765,23 @@
         <v>320</v>
       </c>
       <c r="R4" t="n">
-        <v>41.649694</v>
+        <v>41.4069</v>
       </c>
       <c r="S4" t="n">
-        <v>32.4702</v>
+        <v>32.4906</v>
       </c>
       <c r="T4" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="X4" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="5">
@@ -795,23 +795,23 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UMU1059</t>
+          <t>UBI1619</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UBI1617J</t>
+          <t>UBI1619B</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>56176</v>
+        <v>46190</v>
       </c>
       <c r="H5" t="n">
-        <v>56176</v>
+        <v>46190</v>
       </c>
       <c r="I5" t="n">
         <v>286</v>
@@ -820,13 +820,13 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2713</v>
+        <v>2738</v>
       </c>
       <c r="L5" t="n">
-        <v>2938</v>
+        <v>2963</v>
       </c>
       <c r="M5" t="n">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="N5" t="n">
         <v>47401</v>
@@ -841,23 +841,23 @@
         <v>320</v>
       </c>
       <c r="R5" t="n">
-        <v>41.649694</v>
+        <v>41.4069</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4702</v>
+        <v>32.4906</v>
       </c>
       <c r="T5" t="n">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="X5" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="6">
@@ -871,23 +871,23 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UMU1059</t>
+          <t>UBI1619</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UBI1617B</t>
+          <t>UBI1619E</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>46170</v>
+        <v>46195</v>
       </c>
       <c r="H6" t="n">
-        <v>46170</v>
+        <v>46195</v>
       </c>
       <c r="I6" t="n">
         <v>286</v>
@@ -902,7 +902,7 @@
         <v>2963</v>
       </c>
       <c r="M6" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="N6" t="n">
         <v>47401</v>
@@ -917,23 +917,23 @@
         <v>320</v>
       </c>
       <c r="R6" t="n">
-        <v>41.649694</v>
+        <v>41.4069</v>
       </c>
       <c r="S6" t="n">
-        <v>32.4702</v>
+        <v>32.4906</v>
       </c>
       <c r="T6" t="n">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="X6" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="7">
@@ -947,23 +947,23 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UMU1059</t>
+          <t>UBI1619</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UBI1617E</t>
+          <t>UBI1619H</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>46175</v>
+        <v>46199</v>
       </c>
       <c r="H7" t="n">
-        <v>46175</v>
+        <v>46199</v>
       </c>
       <c r="I7" t="n">
         <v>286</v>
@@ -978,7 +978,7 @@
         <v>2963</v>
       </c>
       <c r="M7" t="n">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="N7" t="n">
         <v>47401</v>
@@ -993,175 +993,23 @@
         <v>320</v>
       </c>
       <c r="R7" t="n">
-        <v>41.649694</v>
+        <v>41.4069</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4702</v>
+        <v>32.4906</v>
       </c>
       <c r="T7" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="X7" t="n">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Middle West Anatolia</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>168</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>UMU1059</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>UBI1617H</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>46179</v>
-      </c>
-      <c r="H8" t="n">
-        <v>46179</v>
-      </c>
-      <c r="I8" t="n">
-        <v>286</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2738</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2963</v>
-      </c>
-      <c r="M8" t="n">
-        <v>265</v>
-      </c>
-      <c r="N8" t="n">
-        <v>47401</v>
-      </c>
-      <c r="O8" t="n">
-        <v>47401</v>
-      </c>
-      <c r="P8" t="n">
-        <v>430</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>320</v>
-      </c>
-      <c r="R8" t="n">
-        <v>41.649694</v>
-      </c>
-      <c r="S8" t="n">
-        <v>32.4702</v>
-      </c>
-      <c r="T8" t="n">
-        <v>190</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="n">
-        <v>6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>70</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Middle West Anatolia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>168</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>UMU1059</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>UBI1617K</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>56170</v>
-      </c>
-      <c r="H9" t="n">
-        <v>56170</v>
-      </c>
-      <c r="I9" t="n">
-        <v>286</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2738</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2963</v>
-      </c>
-      <c r="M9" t="n">
-        <v>440</v>
-      </c>
-      <c r="N9" t="n">
-        <v>47401</v>
-      </c>
-      <c r="O9" t="n">
-        <v>47401</v>
-      </c>
-      <c r="P9" t="n">
-        <v>430</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>320</v>
-      </c>
-      <c r="R9" t="n">
-        <v>41.649694</v>
-      </c>
-      <c r="S9" t="n">
-        <v>32.4702</v>
-      </c>
-      <c r="T9" t="n">
-        <v>300</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
-        <v>6</v>
-      </c>
-      <c r="W9" t="n">
-        <v>70</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1326,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MU1059</t>
+          <t>BI1619</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
